--- a/data/nhs-statistics/xlsx/admissions-by-age-vaccine-effect.xlsx
+++ b/data/nhs-statistics/xlsx/admissions-by-age-vaccine-effect.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\covid-stats\data\nhs-statistics\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6518977-F176-421C-B5C4-192C8ACED1C1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8F4BAA-1395-48BE-A76D-A7F19729CFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="918" xr2:uid="{8368FE52-21E3-45E5-8784-B92CE2C0CED1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="918" activeTab="1" xr2:uid="{8368FE52-21E3-45E5-8784-B92CE2C0CED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Admissions and Diagnoses" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -418,6 +419,45 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Daily COVID-19 Admissions and Hospital Diagnoses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> in England</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200"/>
+              <a:t>Source: NHS Statistical Work Areas - COVID-19 daily situation report</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1196,7 +1236,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A533-4060-87A4-DF1428092707}"/>
+              <c16:uniqueId val="{00000000-4015-483F-93B4-2869C6AABF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1946,7 +1986,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A533-4060-87A4-DF1428092707}"/>
+              <c16:uniqueId val="{00000001-4015-483F-93B4-2869C6AABF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2695,7 +2735,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A533-4060-87A4-DF1428092707}"/>
+              <c16:uniqueId val="{00000002-4015-483F-93B4-2869C6AABF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3445,7 +3485,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-A533-4060-87A4-DF1428092707}"/>
+              <c16:uniqueId val="{00000003-4015-483F-93B4-2869C6AABF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4194,7 +4234,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-A533-4060-87A4-DF1428092707}"/>
+              <c16:uniqueId val="{00000004-4015-483F-93B4-2869C6AABF90}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4259,11 +4299,12 @@
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
         <c:axId val="536200168"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:min val="100"/>
         </c:scaling>
@@ -4283,6 +4324,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Daily admissions and diagnoses (linear scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4327,7 +4423,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4398,10 +4494,4146 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Daily COVID-19 Admissions and Hospital Diagnoses</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> in England</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1200"/>
+              <a:t>Source: NHS Statistical Work Areas - COVID-19 daily situation report</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Admissions and Diagnoses'!$C$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total reported admissions and diagnoses  18-54</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$13:$DR$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$30:$DR$30</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="3">
+                  <c:v>144.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>162.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>167.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>178.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>197.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>211.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>224.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>221.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>220.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>217.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>220.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>218.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>219.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>227.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>239.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>247.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>256.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>269.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>278.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>277.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>278.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>280.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>272.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>267.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>258.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>260.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>262.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>255.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>247.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>241.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>232.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>223.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>219.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>212.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>212.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>219.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>222.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>221.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>225.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>233.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>237.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>243.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>244.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>250.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>265.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>270.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>290.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>301.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>314.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>335.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>358.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>378.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>396.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>405.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>422.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>471.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>500.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>529.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>559.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>580.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>606.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>630.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>654.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>664</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>687.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>714.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>742.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>755.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>763.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>750.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>760.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>760.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>756.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>754.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>746.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>742.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>730.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>723.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>723.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>713.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>707.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>686.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>673.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>657.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>628.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>599.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>588.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>568.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>550.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>529.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>515.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>495.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>474.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>446.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>433.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>425.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>414.85714285714283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1400-4931-97A8-CF38BF306459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Admissions and Diagnoses'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total reported admissions and diagnoses  55-64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$13:$DR$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$31:$DR$31</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.714285714285708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>107.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>120.71428571428571</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>144.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>151.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>161.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>165.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>163.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>160.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>162.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>164.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>168.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>170.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>174.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>183.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>186.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>191.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>195.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>200.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>198.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>194.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>191.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>187.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>188.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>182.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>180.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>178.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>166.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>164.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>150.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>144.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>143.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>138.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>142.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>140.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>144.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>145.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>149.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>151.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>158.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>159.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>174.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>179.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>184.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>186.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>189.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>198.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>202.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>222.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>234.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>250.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>256.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>256.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>277.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>296.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>310.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>327.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>355.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>376.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>399.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>418.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>433.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>459.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>476.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>498.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>532.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>539.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>554.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>561.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>554.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>554.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>552.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>551.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>549.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>551.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>547.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>551.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>530.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>522.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>496.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>474.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>458.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>442.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>422.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>414.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>401.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>399.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>381.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>362.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>325.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>311.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>302.57142857142856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1400-4931-97A8-CF38BF306459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Admissions and Diagnoses'!$C$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total reported admissions and diagnoses  65-74</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$13:$DR$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$32:$DR$32</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="3">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>142.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>147.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>169.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>189.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>224.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>224.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>229.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>234.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>231.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>230.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>235.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>250.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>259.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>278.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>283.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>283.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>287.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>284.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>280.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>273.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>271.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>267.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>262.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>254.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>241.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>232.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>213.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>206.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>198.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>195.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>191.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>197.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>199.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>202.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>205.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>213.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>221.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>225.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>225.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>236.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>246.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>259.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>266.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>274.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>278.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>285.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>298.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>312.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>317.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>327.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>344.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>364.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>376.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>393.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>411.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>426.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>456.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>475.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>492.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>510.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>574.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>610.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>620.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>656</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>672.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>678.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>679.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>674.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>659.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>649.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>647.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>620.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>609</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>594.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>578.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>561.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>531.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>510.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>472.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>460.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>443.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>430.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>420.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>412.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>397.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>383.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>369.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>358.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>343.57142857142856</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1400-4931-97A8-CF38BF306459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Admissions and Diagnoses'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total reported admissions and diagnoses  75-84</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$13:$DR$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$33:$DR$33</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="3">
+                  <c:v>175.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>183.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>205.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>209.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>226.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>251.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>263.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>272.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>280.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>288.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>292.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>299.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>306.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>309.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>320.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>323.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>332.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>342.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>353.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>372.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>381.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>386.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>386.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>387.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>386.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>380.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>364.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>350.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>340.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>328.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>325.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>314.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>305.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>299.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>298.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>294.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>286.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>292.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>296.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>300.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>308.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>318.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>327.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>342.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>357.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>364.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>375.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>386.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>411.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>418.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>425.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>433.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>441.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>449.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>453.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>443.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>446.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>455.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>468.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>490.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>507.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>527.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>555.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>593.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>627.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>657.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>684.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>706.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>744.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>781.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>817.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>819.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>837.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>830.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>801.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>784.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>771.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>762.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>753.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>741</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>717.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>658.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>624.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>594.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>581.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>563.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>526.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>517.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>492.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>463.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>424.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>403.28571428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1400-4931-97A8-CF38BF306459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Admissions and Diagnoses'!$C$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total reported admissions and diagnoses  85+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$13:$DR$13</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="0">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44152</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44159</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44160</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44162</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44182</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44183</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44184</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44185</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44186</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44187</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44188</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44193</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44194</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44196</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44198</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44200</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44201</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44202</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44203</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44204</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44205</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44206</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44207</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44208</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44209</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44210</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44211</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44212</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44213</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44214</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44215</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44216</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44217</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44218</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44220</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44221</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44222</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44223</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44224</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44225</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44226</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44227</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44229</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44230</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44231</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44232</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44233</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Admissions and Diagnoses'!$D$34:$DR$34</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="119"/>
+                <c:pt idx="3">
+                  <c:v>137.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>158.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>167.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>183.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>191.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>205.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>217.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>215.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>225.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>229.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>236.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>245.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>257.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>258.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>266.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>274.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>285.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>298.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>303.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>305.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>305.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>303.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>295.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>287.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>283.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>289.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>290.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>285.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>282.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>279.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>272.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>266.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>265.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>266.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>268.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>267.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>271.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>278.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>283.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>295.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>306.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>334.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>343.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>363.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>371.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>378.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>384.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>386.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>392.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>392.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>397.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>403.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>408.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>405.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>394.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>397.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>407.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>414.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>424.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>439.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>465.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>481.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>510.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>530.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>550.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>595.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>618.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>662.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>678.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>697.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>713.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>721.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>735.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>729.85714285714289</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>712.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>713.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>711.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>709.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>696.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>700.14285714285711</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>683.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>672.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>649.28571428571433</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>622.71428571428567</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>583.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>558.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>532.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>519.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>505.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>465.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>461.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>445.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>427.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>406.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>387.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>374.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>364.71428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1400-4931-97A8-CF38BF306459}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="536199840"/>
+        <c:axId val="536200168"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="536199840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536200168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="536200168"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Daily admissions and diagnoses (log scale)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="536199840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4957,31 +9189,549 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>523880</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>42861</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>114</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C32D9EB-21B7-49C3-8266-247372217EC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC9104E-D2D3-422E-98B0-EA251855B249}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4995,7 +9745,331 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>200020</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52389</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6830AE5-592C-42D8-B3DC-5CE631B809CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84174</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.09325</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9680A72-B87E-4F23-B406-18A974225A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6838950" y="0"/>
+          <a:ext cx="1285870" cy="466753"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Created 11 Feb 2021</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>@Mike_aka_Logiqx</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.84291</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.09325</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9680A72-B87E-4F23-B406-18A974225A5E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6848474" y="0"/>
+          <a:ext cx="1276345" cy="466771"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Created 11 Feb 2021</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Calibri"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Calibri"/>
+            </a:rPr>
+            <a:t>@Mike_aka_Logiqx</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5298,11 +10372,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="13" topLeftCell="CZ14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28:DR34"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12341,6 +17415,20 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B167975-99A7-47CA-9C7B-9E950726A549}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>